--- a/biology/Biologie cellulaire et moléculaire/Knock-out_(génétique)/Knock-out_(génétique).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Knock-out_(génétique)/Knock-out_(génétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Knock-out_(g%C3%A9n%C3%A9tique)</t>
+          <t>Knock-out_(génétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie moléculaire, le knock-out (knockout ou KO), en français « invalidation génique », est l'inactivation totale d'un gène.
-Ce terme fut initialement utilisé pour décrire la création de souris transgéniques chez qui un gène est invalidé par recombinaison homologue : les souris knock-out. Depuis, il est principalement utilisé chez les espèces modèles mammifères telles que la souris, le rat ou les lignées cellulaires humaines[1].
-Selon les organismes, ce terme peut être utilisé pour décrire l'invalidation d'un gène par l'insertion aléatoire d'une séquence d'ADN, comme chez la plante modèle Arabidopsis thaliana[2].
+Ce terme fut initialement utilisé pour décrire la création de souris transgéniques chez qui un gène est invalidé par recombinaison homologue : les souris knock-out. Depuis, il est principalement utilisé chez les espèces modèles mammifères telles que la souris, le rat ou les lignées cellulaires humaines.
+Selon les organismes, ce terme peut être utilisé pour décrire l'invalidation d'un gène par l'insertion aléatoire d'une séquence d'ADN, comme chez la plante modèle Arabidopsis thaliana.
 </t>
         </is>
       </c>
